--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1804.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1804.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.152216432848901</v>
+        <v>0.7923677563667297</v>
       </c>
       <c r="B1">
-        <v>2.305987500512801</v>
+        <v>1.650888800621033</v>
       </c>
       <c r="C1">
-        <v>4.097438435447105</v>
+        <v>5.183144092559814</v>
       </c>
       <c r="D1">
-        <v>2.930315260705784</v>
+        <v>2.082289695739746</v>
       </c>
       <c r="E1">
-        <v>1.165584551085574</v>
+        <v>1.206410884857178</v>
       </c>
     </row>
   </sheetData>
